--- a/db-design.xlsx
+++ b/db-design.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\percetakan-app-ci4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE98914-FDBB-4EF1-B41C-00309D52CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD8E60E-4FC2-42E8-80DA-784407B68B62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
   <si>
     <t>tb_bahan</t>
   </si>
@@ -401,12 +395,21 @@
   </si>
   <si>
     <t>Tb_bank</t>
+  </si>
+  <si>
+    <t>diambil</t>
+  </si>
+  <si>
+    <t>selesai</t>
+  </si>
+  <si>
+    <t>dipesan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -565,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -759,18 +762,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F967411-EE82-40BA-9C15-D2003879D048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s">
         <v>121</v>
@@ -1089,7 +1092,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s">
         <v>49</v>
@@ -1112,7 +1115,7 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s">
         <v>50</v>
